--- a/huPresentacion.xlsx
+++ b/huPresentacion.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="174">
   <si>
     <t>IDENTIFICACIÓN</t>
   </si>
@@ -743,6 +743,9 @@
   <si>
     <t>Login</t>
   </si>
+  <si>
+    <t>crear-prov</t>
+  </si>
 </sst>
 </file>
 
@@ -751,11 +754,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -991,101 +1001,104 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1310,7 +1323,7 @@
   <dimension ref="A1:N53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1320,7 +1333,7 @@
     <col min="3" max="3" width="75" style="11" customWidth="1"/>
     <col min="4" max="4" width="53.28515625" style="11" customWidth="1"/>
     <col min="5" max="5" width="14.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.28515625" style="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.7109375" style="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.5703125" style="11" bestFit="1" customWidth="1"/>
@@ -1491,7 +1504,7 @@
       <c r="B8" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="40" t="s">
         <v>92</v>
       </c>
       <c r="D8" s="13" t="s">
@@ -1500,7 +1513,9 @@
       <c r="E8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="13"/>
+      <c r="F8" s="39" t="s">
+        <v>173</v>
+      </c>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
@@ -1863,7 +1878,9 @@
       <c r="E24" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="13"/>
+      <c r="F24" s="39" t="s">
+        <v>173</v>
+      </c>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
@@ -2054,7 +2071,9 @@
       <c r="E33" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="13"/>
+      <c r="F33" s="39" t="s">
+        <v>173</v>
+      </c>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
@@ -2490,9 +2509,12 @@
     <hyperlink ref="F31" r:id="rId3"/>
     <hyperlink ref="F40" r:id="rId4"/>
     <hyperlink ref="F47" r:id="rId5"/>
+    <hyperlink ref="F8" r:id="rId6"/>
+    <hyperlink ref="F24" r:id="rId7"/>
+    <hyperlink ref="F33" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId6"/>
+  <pageSetup orientation="landscape" r:id="rId9"/>
 </worksheet>
 </file>
 

--- a/huPresentacion.xlsx
+++ b/huPresentacion.xlsx
@@ -20,7 +20,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">HU_Administrador!$A$1:$N$12</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="" roundtripDataSignature="AMtx7mhrLWojzACMIXPa42WNnfg0AlnQkQ=="/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="176">
   <si>
     <t>IDENTIFICACIÓN</t>
   </si>
@@ -746,6 +745,12 @@
   <si>
     <t>crear-prov</t>
   </si>
+  <si>
+    <t>crear-cliente</t>
+  </si>
+  <si>
+    <t>Orden de compra</t>
+  </si>
 </sst>
 </file>
 
@@ -754,11 +759,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1001,103 +1013,106 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1323,7 +1338,7 @@
   <dimension ref="A1:N53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1385,7 +1400,7 @@
       <c r="E2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="21" t="s">
         <v>172</v>
       </c>
       <c r="G2" s="13"/>
@@ -1504,7 +1519,7 @@
       <c r="B8" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="22" t="s">
         <v>92</v>
       </c>
       <c r="D8" s="13" t="s">
@@ -1513,7 +1528,7 @@
       <c r="E8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="21" t="s">
         <v>173</v>
       </c>
       <c r="G8" s="13"/>
@@ -1527,7 +1542,7 @@
       <c r="B9" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="41" t="s">
         <v>53</v>
       </c>
       <c r="D9" s="13" t="s">
@@ -1536,7 +1551,9 @@
       <c r="E9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="13"/>
+      <c r="F9" s="21" t="s">
+        <v>175</v>
+      </c>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
@@ -1623,7 +1640,7 @@
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
-      <c r="I13" s="38"/>
+      <c r="I13" s="20"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
@@ -1649,7 +1666,7 @@
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
-      <c r="I14" s="38"/>
+      <c r="I14" s="20"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
@@ -1663,7 +1680,7 @@
       <c r="B15" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="41" t="s">
         <v>60</v>
       </c>
       <c r="D15" s="13" t="s">
@@ -1672,10 +1689,12 @@
       <c r="E15" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="13"/>
+      <c r="F15" s="21" t="s">
+        <v>174</v>
+      </c>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
-      <c r="I15" s="38"/>
+      <c r="I15" s="20"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
@@ -1701,7 +1720,7 @@
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
-      <c r="I16" s="38"/>
+      <c r="I16" s="20"/>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
@@ -1727,7 +1746,7 @@
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
-      <c r="I17" s="38"/>
+      <c r="I17" s="20"/>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
@@ -1774,7 +1793,7 @@
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
-      <c r="I19" s="38"/>
+      <c r="I19" s="20"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
@@ -1792,7 +1811,7 @@
       <c r="E20" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="39" t="s">
+      <c r="F20" s="21" t="s">
         <v>172</v>
       </c>
       <c r="G20" s="13"/>
@@ -1836,7 +1855,9 @@
       <c r="E22" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="13"/>
+      <c r="F22" s="21" t="s">
+        <v>175</v>
+      </c>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
@@ -1878,7 +1899,7 @@
       <c r="E24" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="39" t="s">
+      <c r="F24" s="21" t="s">
         <v>173</v>
       </c>
       <c r="G24" s="13"/>
@@ -1943,7 +1964,9 @@
       <c r="E27" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F27" s="13"/>
+      <c r="F27" s="21" t="s">
+        <v>174</v>
+      </c>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
@@ -2027,7 +2050,7 @@
       <c r="E31" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F31" s="39" t="s">
+      <c r="F31" s="21" t="s">
         <v>172</v>
       </c>
       <c r="G31" s="13"/>
@@ -2071,7 +2094,7 @@
       <c r="E33" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="39" t="s">
+      <c r="F33" s="21" t="s">
         <v>173</v>
       </c>
       <c r="G33" s="13"/>
@@ -2094,7 +2117,9 @@
       <c r="E34" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F34" s="13"/>
+      <c r="F34" s="21" t="s">
+        <v>175</v>
+      </c>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
@@ -2220,7 +2245,7 @@
       <c r="E40" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="F40" s="39" t="s">
+      <c r="F40" s="21" t="s">
         <v>172</v>
       </c>
       <c r="G40" s="13"/>
@@ -2306,7 +2331,9 @@
       <c r="E44" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F44" s="13"/>
+      <c r="F44" s="21" t="s">
+        <v>174</v>
+      </c>
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
       <c r="I44" s="13"/>
@@ -2369,7 +2396,7 @@
       <c r="E47" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="F47" s="39" t="s">
+      <c r="F47" s="21" t="s">
         <v>172</v>
       </c>
       <c r="G47" s="13"/>
@@ -2455,7 +2482,9 @@
       <c r="E51" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F51" s="13"/>
+      <c r="F51" s="21" t="s">
+        <v>174</v>
+      </c>
       <c r="G51" s="13"/>
       <c r="H51" s="13"/>
       <c r="I51" s="13"/>
@@ -2512,9 +2541,16 @@
     <hyperlink ref="F8" r:id="rId6"/>
     <hyperlink ref="F24" r:id="rId7"/>
     <hyperlink ref="F33" r:id="rId8"/>
+    <hyperlink ref="F15" r:id="rId9"/>
+    <hyperlink ref="F27" r:id="rId10"/>
+    <hyperlink ref="F44" r:id="rId11"/>
+    <hyperlink ref="F51" r:id="rId12"/>
+    <hyperlink ref="F9" r:id="rId13"/>
+    <hyperlink ref="F22" r:id="rId14"/>
+    <hyperlink ref="F34" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId9"/>
+  <pageSetup orientation="landscape" r:id="rId16"/>
 </worksheet>
 </file>
 
@@ -2531,131 +2567,131 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="22"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="23" t="s">
+      <c r="B2" s="34"/>
+      <c r="C2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="25"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="26"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="28"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="30"/>
     </row>
     <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="25"/>
     </row>
     <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="33"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="28"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="34"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="28"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="34"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="28"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="34"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="28"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="30"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="31"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="22"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="25"/>
     </row>
     <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="31"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="22"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="25"/>
     </row>
     <row r="11" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="31"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="22"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="25"/>
     </row>
     <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="31"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="22"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="25"/>
     </row>
     <row r="13" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="31"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="22"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="25"/>
     </row>
     <row r="14" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="32" t="s">
+      <c r="B14" s="25"/>
+      <c r="C14" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="22"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="25"/>
     </row>
     <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3645,6 +3681,11 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="C2:F3"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A1:B1"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:F14"/>
@@ -3656,11 +3697,6 @@
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="C2:F3"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -3679,188 +3715,188 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="36" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="22"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="23" t="s">
+      <c r="B2" s="34"/>
+      <c r="C2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="25"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="26"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="28"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="30"/>
     </row>
     <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="25"/>
     </row>
     <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="36"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="22"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="25"/>
     </row>
     <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="22"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="25"/>
     </row>
     <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="22"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="25"/>
     </row>
     <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="22"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="25"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="22"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="25"/>
     </row>
     <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="22"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="25"/>
     </row>
     <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="22"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="25"/>
     </row>
     <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="22"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="25"/>
     </row>
     <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="31"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="22"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="25"/>
     </row>
     <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="37"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="22"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="25"/>
     </row>
     <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="32" t="s">
+      <c r="B15" s="25"/>
+      <c r="C15" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="22"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="25"/>
     </row>
     <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="37"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="22"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="25"/>
     </row>
     <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="37"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="22"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="25"/>
     </row>
     <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="37"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="22"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="25"/>
     </row>
     <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="32" t="s">
+      <c r="B19" s="25"/>
+      <c r="C19" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="22"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="25"/>
     </row>
     <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4845,6 +4881,19 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="C2:F3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A2:B3"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="C19:F19"/>
     <mergeCell ref="A17:F17"/>
@@ -4854,19 +4903,6 @@
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="C2:F3"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
